--- a/ESG_score_stat.xlsx
+++ b/ESG_score_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Mean</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Q10</t>
   </si>
   <si>
+    <t>Escore</t>
+  </si>
+  <si>
     <t>Q11</t>
   </si>
   <si>
@@ -91,6 +94,12 @@
     <t>num_employee</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Sscore</t>
+  </si>
+  <si>
     <t>Q21</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>num_factory</t>
   </si>
   <si>
+    <t>Gscore</t>
+  </si>
+  <si>
     <t>Q41</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>660.7086</t>
   </si>
   <si>
+    <t>53.2770</t>
+  </si>
+  <si>
     <t>244.5308</t>
   </si>
   <si>
@@ -214,6 +229,12 @@
     <t>133784.3304</t>
   </si>
   <si>
+    <t>11.1134</t>
+  </si>
+  <si>
+    <t>36.7727</t>
+  </si>
+  <si>
     <t>211.2894</t>
   </si>
   <si>
@@ -245,6 +266,9 @@
   </si>
   <si>
     <t>148739.4102</t>
+  </si>
+  <si>
+    <t>38.5901</t>
   </si>
   <si>
     <t>44343.0069</t>
@@ -632,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +696,7 @@
         <v>13.28188885289779</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -692,7 +716,7 @@
         <v>581.537954929321</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -712,7 +736,7 @@
         <v>-1.590473524533295</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -732,7 +756,7 @@
         <v>0.8891958832081528</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,7 +776,7 @@
         <v>7.97238368058512</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,7 +796,7 @@
         <v>12.34890371480749</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,7 +816,7 @@
         <v>-1.337287161694204</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,7 +836,7 @@
         <v>2.858606818285295</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,7 +856,7 @@
         <v>5.798768781454622</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,7 +876,7 @@
         <v>1.450053829688811</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,19 +884,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.647940074906367</v>
+        <v>1.598689138576779</v>
       </c>
       <c r="C12">
-        <v>0.8415328697760913</v>
+        <v>0.9633772623290631</v>
       </c>
       <c r="D12">
-        <v>-1.171148950912317</v>
+        <v>0.5450123588718899</v>
       </c>
       <c r="E12">
-        <v>0.1616779212263144</v>
+        <v>0.1176054335762426</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,19 +904,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5.729400749063671</v>
+        <v>2.647940074906367</v>
       </c>
       <c r="C13">
-        <v>0.9419897665178577</v>
+        <v>0.8415328697760913</v>
       </c>
       <c r="D13">
-        <v>-3.542149011869704</v>
+        <v>-1.171148950912317</v>
       </c>
       <c r="E13">
-        <v>11.85616033417406</v>
+        <v>0.1616779212263144</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,19 +924,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1.27247191011236</v>
+        <v>5.729400749063671</v>
       </c>
       <c r="C14">
-        <v>0.700589304866316</v>
+        <v>0.9419897665178577</v>
       </c>
       <c r="D14">
-        <v>2.417423797226639</v>
+        <v>-3.542149011869704</v>
       </c>
       <c r="E14">
-        <v>4.498886156259386</v>
+        <v>11.85616033417406</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,19 +944,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1.301498127340824</v>
+        <v>1.27247191011236</v>
       </c>
       <c r="C15">
-        <v>0.7093680299188173</v>
+        <v>0.700589304866316</v>
       </c>
       <c r="D15">
-        <v>2.191427845730299</v>
+        <v>2.417423797226639</v>
       </c>
       <c r="E15">
-        <v>3.466691417643151</v>
+        <v>4.498886156259386</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,19 +964,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1.083333333333333</v>
+        <v>1.301498127340824</v>
       </c>
       <c r="C16">
-        <v>0.3668341896711001</v>
+        <v>0.7093680299188173</v>
       </c>
       <c r="D16">
-        <v>5.221082850259256</v>
+        <v>2.191427845730299</v>
       </c>
       <c r="E16">
-        <v>30.37837632040498</v>
+        <v>3.466691417643151</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,19 +984,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1.074906367041198</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="C17">
-        <v>0.3463661819421207</v>
+        <v>0.3668341896711001</v>
       </c>
       <c r="D17">
-        <v>5.486125506367188</v>
+        <v>5.221082850259256</v>
       </c>
       <c r="E17">
-        <v>33.72237270748269</v>
+        <v>30.37837632040498</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -980,19 +1004,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>1.142322097378277</v>
+        <v>1.074906367041198</v>
       </c>
       <c r="C18">
-        <v>0.5144282284710794</v>
+        <v>0.3463661819421207</v>
       </c>
       <c r="D18">
-        <v>3.67181357617982</v>
+        <v>5.486125506367188</v>
       </c>
       <c r="E18">
-        <v>12.68590493082739</v>
+        <v>33.72237270748269</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,19 +1024,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2.75187265917603</v>
+        <v>1.142322097378277</v>
       </c>
       <c r="C19">
-        <v>0.7367996442235025</v>
+        <v>0.5144282284710794</v>
       </c>
       <c r="D19">
-        <v>-1.599815655687152</v>
+        <v>3.67181357617982</v>
       </c>
       <c r="E19">
-        <v>1.720053998402704</v>
+        <v>12.68590493082739</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1020,19 +1044,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2.867041198501873</v>
+        <v>2.75187265917603</v>
       </c>
       <c r="C20">
-        <v>0.6444339220107151</v>
+        <v>0.7367996442235025</v>
       </c>
       <c r="D20">
-        <v>-1.869086855449441</v>
+        <v>-1.599815655687152</v>
       </c>
       <c r="E20">
-        <v>3.938979447247359</v>
+        <v>1.720053998402704</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,19 +1064,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>51.07116104868914</v>
+        <v>2.867041198501873</v>
       </c>
       <c r="C21">
-        <v>93.05663637959046</v>
+        <v>0.6444339220107151</v>
       </c>
       <c r="D21">
-        <v>5.570683295248138</v>
+        <v>-1.869086855449441</v>
       </c>
       <c r="E21">
-        <v>53.94777060517406</v>
+        <v>3.938979447247359</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1060,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2.565543071161049</v>
+        <v>51.07116104868914</v>
       </c>
       <c r="C22">
-        <v>0.8682745199557739</v>
+        <v>93.05663637959046</v>
       </c>
       <c r="D22">
-        <v>-1.075779543241641</v>
+        <v>5.570683295248138</v>
       </c>
       <c r="E22">
-        <v>-0.3592063071304175</v>
+        <v>53.94777060517406</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1080,19 +1104,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>2.291198501872659</v>
+        <v>1992.568352059925</v>
       </c>
       <c r="C23">
-        <v>1.527761612438313</v>
+        <v>13.65754716155602</v>
       </c>
       <c r="D23">
-        <v>0.698057994741569</v>
+        <v>-0.204214427812799</v>
       </c>
       <c r="E23">
-        <v>-0.9769790182641978</v>
+        <v>0.2957754607358525</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1100,19 +1124,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2.310861423220974</v>
+        <v>2.425842696629214</v>
       </c>
       <c r="C24">
-        <v>1.009232919007535</v>
+        <v>1.022706931269266</v>
       </c>
       <c r="D24">
-        <v>-0.3942454223587437</v>
+        <v>-0.1764979413411581</v>
       </c>
       <c r="E24">
-        <v>-1.508948363541087</v>
+        <v>-0.836209139186403</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1120,19 +1144,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>2.185393258426966</v>
+        <v>2.565543071161049</v>
       </c>
       <c r="C25">
-        <v>1.013171056773007</v>
+        <v>0.8682745199557739</v>
       </c>
       <c r="D25">
-        <v>-0.2148574343414596</v>
+        <v>-1.075779543241641</v>
       </c>
       <c r="E25">
-        <v>-1.719269536500297</v>
+        <v>-0.3592063071304175</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1140,19 +1164,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2.109550561797753</v>
+        <v>2.291198501872659</v>
       </c>
       <c r="C26">
-        <v>1.020953201573349</v>
+        <v>1.527761612438313</v>
       </c>
       <c r="D26">
-        <v>-0.07757891275854567</v>
+        <v>0.698057994741569</v>
       </c>
       <c r="E26">
-        <v>-1.787672545102414</v>
+        <v>-0.9769790182641978</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1160,19 +1184,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2.72191011235955</v>
+        <v>2.310861423220974</v>
       </c>
       <c r="C27">
-        <v>0.7426032021284458</v>
+        <v>1.009232919007535</v>
       </c>
       <c r="D27">
-        <v>-1.607625233500186</v>
+        <v>-0.3942454223587437</v>
       </c>
       <c r="E27">
-        <v>1.478168448836841</v>
+        <v>-1.508948363541087</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1180,19 +1204,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>2.303370786516854</v>
+        <v>2.185393258426966</v>
       </c>
       <c r="C28">
-        <v>0.9766284145667748</v>
+        <v>1.013171056773007</v>
       </c>
       <c r="D28">
-        <v>-0.4859050000788694</v>
+        <v>-0.2148574343414596</v>
       </c>
       <c r="E28">
-        <v>-1.527045101043144</v>
+        <v>-1.719269536500297</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1200,19 +1224,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1.436329588014981</v>
+        <v>2.109550561797753</v>
       </c>
       <c r="C29">
-        <v>0.8833938198989345</v>
+        <v>1.020953201573349</v>
       </c>
       <c r="D29">
-        <v>1.76699519939326</v>
+        <v>-0.07757891275854567</v>
       </c>
       <c r="E29">
-        <v>1.897276732273609</v>
+        <v>-1.787672545102414</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1220,19 +1244,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>2.191947565543071</v>
+        <v>2.72191011235955</v>
       </c>
       <c r="C30">
-        <v>1.016107734854888</v>
+        <v>0.7426032021284458</v>
       </c>
       <c r="D30">
-        <v>-0.2192165207396741</v>
+        <v>-1.607625233500186</v>
       </c>
       <c r="E30">
-        <v>-1.710480009860648</v>
+        <v>1.478168448836841</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1240,19 +1264,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>1.374531835205993</v>
+        <v>2.303370786516854</v>
       </c>
       <c r="C31">
-        <v>0.7709505968547081</v>
+        <v>0.9766284145667748</v>
       </c>
       <c r="D31">
-        <v>1.887907314470837</v>
+        <v>-0.4859050000788694</v>
       </c>
       <c r="E31">
-        <v>2.276599586728366</v>
+        <v>-1.527045101043144</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1260,19 +1284,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1.114232209737828</v>
+        <v>1.436329588014981</v>
       </c>
       <c r="C32">
-        <v>0.4782658364555331</v>
+        <v>0.8833938198989345</v>
       </c>
       <c r="D32">
-        <v>6.186388402366555</v>
+        <v>1.76699519939326</v>
       </c>
       <c r="E32">
-        <v>56.74928522706292</v>
+        <v>1.897276732273609</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1280,19 +1304,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>2.99625468164794</v>
+        <v>2.191947565543071</v>
       </c>
       <c r="C33">
-        <v>0.2904042019212628</v>
+        <v>1.016107734854888</v>
       </c>
       <c r="D33">
-        <v>-3.335067753561084</v>
+        <v>-0.2192165207396741</v>
       </c>
       <c r="E33">
-        <v>31.00680517134666</v>
+        <v>-1.710480009860648</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1300,19 +1324,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>1.49625468164794</v>
+        <v>1.374531835205993</v>
       </c>
       <c r="C34">
-        <v>0.8456210700547362</v>
+        <v>0.7709505968547081</v>
       </c>
       <c r="D34">
-        <v>1.260229930566074</v>
+        <v>1.887907314470837</v>
       </c>
       <c r="E34">
-        <v>-0.1351779818137251</v>
+        <v>2.276599586728366</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1320,19 +1344,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>2.533707865168539</v>
+        <v>1.114232209737828</v>
       </c>
       <c r="C35">
-        <v>0.8722454389491008</v>
+        <v>0.4782658364555331</v>
       </c>
       <c r="D35">
-        <v>-1.084019077789367</v>
+        <v>6.186388402366555</v>
       </c>
       <c r="E35">
-        <v>-0.5180133166974321</v>
+        <v>56.74928522706292</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1340,19 +1364,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>2.377340823970037</v>
+        <v>2.627340823970037</v>
       </c>
       <c r="C36">
-        <v>0.9470180338607218</v>
+        <v>0.8957133402755518</v>
       </c>
       <c r="D36">
-        <v>-0.6894703861023007</v>
+        <v>-0.1293787809520382</v>
       </c>
       <c r="E36">
-        <v>-1.322104287208665</v>
+        <v>-0.8932284021897567</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1360,19 +1384,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>5.326779026217229</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="C37">
-        <v>2.562975170445609</v>
+        <v>0.2904042019212628</v>
       </c>
       <c r="D37">
-        <v>-0.4284075528418752</v>
+        <v>-3.335067753561084</v>
       </c>
       <c r="E37">
-        <v>-1.204607912329749</v>
+        <v>31.00680517134666</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1380,19 +1404,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>19.15120786516854</v>
+        <v>1.49625468164794</v>
       </c>
       <c r="C38">
-        <v>32.23108978279442</v>
+        <v>0.8456210700547362</v>
       </c>
       <c r="D38">
-        <v>1.436233487117566</v>
+        <v>1.260229930566074</v>
       </c>
       <c r="E38">
-        <v>0.4845188768631883</v>
+        <v>-0.1351779818137251</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1400,19 +1424,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>10.87453183520599</v>
+        <v>2.533707865168539</v>
       </c>
       <c r="C39">
-        <v>3.326244968624601</v>
+        <v>0.8722454389491008</v>
       </c>
       <c r="D39">
-        <v>-2.674336372815603</v>
+        <v>-1.084019077789367</v>
       </c>
       <c r="E39">
-        <v>5.258053030582761</v>
+        <v>-0.5180133166974321</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1420,19 +1444,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>7.794007490636704</v>
+        <v>2.377340823970037</v>
       </c>
       <c r="C40">
-        <v>1.015660711239836</v>
+        <v>0.9470180338607218</v>
       </c>
       <c r="D40">
-        <v>-5.042426087278031</v>
+        <v>-0.6894703861023007</v>
       </c>
       <c r="E40">
-        <v>25.06783568628487</v>
+        <v>-1.322104287208665</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1440,19 +1464,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>5.651685393258427</v>
+        <v>5.326779026217229</v>
       </c>
       <c r="C41">
-        <v>3.303235607580336</v>
+        <v>2.562975170445609</v>
       </c>
       <c r="D41">
-        <v>-0.7435376863602087</v>
+        <v>-0.4284075528418752</v>
       </c>
       <c r="E41">
-        <v>-1.419978054433275</v>
+        <v>-1.204607912329749</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1460,19 +1484,99 @@
         <v>45</v>
       </c>
       <c r="B42">
+        <v>19.15120786516854</v>
+      </c>
+      <c r="C42">
+        <v>32.23108978279442</v>
+      </c>
+      <c r="D42">
+        <v>1.436233487117566</v>
+      </c>
+      <c r="E42">
+        <v>0.4845188768631883</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>10.87453183520599</v>
+      </c>
+      <c r="C43">
+        <v>3.326244968624601</v>
+      </c>
+      <c r="D43">
+        <v>-2.674336372815603</v>
+      </c>
+      <c r="E43">
+        <v>5.258053030582761</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>7.794007490636704</v>
+      </c>
+      <c r="C44">
+        <v>1.015660711239836</v>
+      </c>
+      <c r="D44">
+        <v>-5.042426087278031</v>
+      </c>
+      <c r="E44">
+        <v>25.06783568628487</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>5.651685393258427</v>
+      </c>
+      <c r="C45">
+        <v>3.303235607580336</v>
+      </c>
+      <c r="D45">
+        <v>-0.7435376863602087</v>
+      </c>
+      <c r="E45">
+        <v>-1.419978054433275</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
         <v>2.21729088639201</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>0.7923513131333232</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>0.1894859925871323</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>-0.3035157950507106</v>
       </c>
-      <c r="F42" t="s">
-        <v>86</v>
+      <c r="F46" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
